--- a/CoA_Level.xlsx
+++ b/CoA_Level.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6759" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6763" uniqueCount="1440">
   <si>
     <t>FS_Element</t>
   </si>
@@ -4860,7 +4860,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M345"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="B348" sqref="B348"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -15790,8 +15792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O313"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="B304" sqref="B304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -16935,6 +16937,12 @@
       <c r="A27">
         <v>1</v>
       </c>
+      <c r="B27" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>700</v>
+      </c>
       <c r="D27" t="s">
         <v>1134</v>
       </c>
@@ -16976,6 +16984,12 @@
       <c r="A28">
         <v>1</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>698</v>
+      </c>
       <c r="D28" t="s">
         <v>1135</v>
       </c>
@@ -27519,10 +27533,10 @@
         <v>-1</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>479</v>
+        <v>632</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>480</v>
+        <v>633</v>
       </c>
       <c r="D304" t="s">
         <v>1411</v>

--- a/CoA_Level.xlsx
+++ b/CoA_Level.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24694" windowHeight="11503"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24694" windowHeight="11503" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CoA" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6823" uniqueCount="1446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6828" uniqueCount="1444">
   <si>
     <t>FS_Element</t>
   </si>
@@ -4376,10 +4376,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>201200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>회사명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4409,10 +4405,6 @@
   </si>
   <si>
     <t>105000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>201200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -4875,7 +4867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -11713,7 +11705,7 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="2" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>1392</v>
@@ -15535,7 +15527,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="2" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>1393</v>
@@ -15560,7 +15552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -15599,54 +15593,54 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1425</v>
+        <v>1433</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1426</v>
+        <v>1434</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>1428</v>
+        <v>1436</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>1429</v>
+        <v>1437</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>1430</v>
+        <v>1438</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>1431</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>1432</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>1433</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>1440</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -15676,7 +15670,7 @@
         <v>1043</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -15994,6 +15988,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16109,7 +16104,7 @@
         <v>741</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>493</v>
@@ -16254,8 +16249,8 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>80800</v>
+      <c r="B6" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="C6" t="s">
         <v>548</v>
@@ -16301,8 +16296,8 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>83500</v>
+      <c r="B7" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="C7" t="s">
         <v>598</v>
@@ -16348,8 +16343,8 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>93500</v>
+      <c r="B8" s="2" t="s">
+        <v>733</v>
       </c>
       <c r="C8" t="s">
         <v>734</v>
@@ -16395,8 +16390,8 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>93800</v>
+      <c r="B9" s="2" t="s">
+        <v>692</v>
       </c>
       <c r="C9" t="s">
         <v>693</v>
@@ -16606,8 +16601,8 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14">
-        <v>94100</v>
+      <c r="B14" s="2" t="s">
+        <v>698</v>
       </c>
       <c r="C14" t="s">
         <v>699</v>
@@ -28823,7 +28818,7 @@
         <v>361</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">

--- a/CoA_Level.xlsx
+++ b/CoA_Level.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhhye\OneDrive\문서\2025 Others\st_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hwan-Hee Hyeong\Documents\OneDrive\문서\2025 Others\st_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24694" windowHeight="11503" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="CoA" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6828" uniqueCount="1444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6828" uniqueCount="1445">
   <si>
     <t>FS_Element</t>
   </si>
@@ -4425,6 +4425,9 @@
   <si>
     <t>CR</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15710</t>
   </si>
 </sst>
 </file>
@@ -4867,15 +4870,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M345"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.2109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4916,7 +4921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -4946,7 +4951,7 @@
       </c>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -4976,7 +4981,7 @@
       </c>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -5006,7 +5011,7 @@
       </c>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -5036,7 +5041,7 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -5066,7 +5071,7 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -5096,7 +5101,7 @@
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -5126,7 +5131,7 @@
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -5156,7 +5161,7 @@
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -5186,7 +5191,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -5216,7 +5221,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
@@ -5246,7 +5251,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -5276,7 +5281,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -5306,7 +5311,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -5336,7 +5341,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -5366,7 +5371,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -5396,7 +5401,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
@@ -5426,7 +5431,7 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -5456,7 +5461,7 @@
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
@@ -5486,7 +5491,7 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -5516,7 +5521,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -5546,7 +5551,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
@@ -5576,7 +5581,7 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -5606,7 +5611,7 @@
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
@@ -5636,7 +5641,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
@@ -5666,7 +5671,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
@@ -5696,7 +5701,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -5726,7 +5731,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
@@ -5756,7 +5761,7 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
@@ -5786,7 +5791,7 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
@@ -5816,7 +5821,7 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
@@ -5846,7 +5851,7 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
@@ -5876,7 +5881,7 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
@@ -5906,7 +5911,7 @@
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
@@ -5936,7 +5941,7 @@
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
@@ -5966,7 +5971,7 @@
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
@@ -5996,7 +6001,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
@@ -6026,7 +6031,7 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>13</v>
       </c>
@@ -6056,7 +6061,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>13</v>
       </c>
@@ -6086,7 +6091,7 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
@@ -6116,12 +6121,12 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>1444</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>102</v>
@@ -6146,7 +6151,7 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -6176,7 +6181,7 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -6206,7 +6211,7 @@
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>13</v>
       </c>
@@ -6236,7 +6241,7 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>13</v>
       </c>
@@ -6266,7 +6271,7 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
@@ -6296,7 +6301,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>13</v>
       </c>
@@ -6326,7 +6331,7 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>13</v>
       </c>
@@ -6356,7 +6361,7 @@
       </c>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>13</v>
       </c>
@@ -6386,7 +6391,7 @@
       </c>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>13</v>
       </c>
@@ -6416,7 +6421,7 @@
       </c>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>13</v>
       </c>
@@ -6446,7 +6451,7 @@
       </c>
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>13</v>
       </c>
@@ -6476,7 +6481,7 @@
       </c>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
@@ -6506,7 +6511,7 @@
       </c>
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>13</v>
       </c>
@@ -6536,7 +6541,7 @@
       </c>
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>13</v>
       </c>
@@ -6566,7 +6571,7 @@
       </c>
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>13</v>
       </c>
@@ -6596,7 +6601,7 @@
       </c>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>13</v>
       </c>
@@ -6626,7 +6631,7 @@
       </c>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>13</v>
       </c>
@@ -6656,7 +6661,7 @@
       </c>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>13</v>
       </c>
@@ -6686,7 +6691,7 @@
       </c>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>13</v>
       </c>
@@ -6716,7 +6721,7 @@
       </c>
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>13</v>
       </c>
@@ -6746,7 +6751,7 @@
       </c>
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>13</v>
       </c>
@@ -6776,7 +6781,7 @@
       </c>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>13</v>
       </c>
@@ -6806,7 +6811,7 @@
       </c>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>13</v>
       </c>
@@ -6836,7 +6841,7 @@
       </c>
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>13</v>
       </c>
@@ -6866,7 +6871,7 @@
       </c>
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>13</v>
       </c>
@@ -6896,7 +6901,7 @@
       </c>
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>13</v>
       </c>
@@ -6926,7 +6931,7 @@
       </c>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>13</v>
       </c>
@@ -6956,7 +6961,7 @@
       </c>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>13</v>
       </c>
@@ -6986,7 +6991,7 @@
       </c>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>13</v>
       </c>
@@ -7016,7 +7021,7 @@
       </c>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>13</v>
       </c>
@@ -7046,7 +7051,7 @@
       </c>
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>13</v>
       </c>
@@ -7076,7 +7081,7 @@
       </c>
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>13</v>
       </c>
@@ -7106,7 +7111,7 @@
       </c>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>13</v>
       </c>
@@ -7136,7 +7141,7 @@
       </c>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>13</v>
       </c>
@@ -7166,7 +7171,7 @@
       </c>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>13</v>
       </c>
@@ -7196,7 +7201,7 @@
       </c>
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>13</v>
       </c>
@@ -7226,7 +7231,7 @@
       </c>
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>13</v>
       </c>
@@ -7256,7 +7261,7 @@
       </c>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>13</v>
       </c>
@@ -7286,7 +7291,7 @@
       </c>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>13</v>
       </c>
@@ -7316,7 +7321,7 @@
       </c>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>13</v>
       </c>
@@ -7346,7 +7351,7 @@
       </c>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>13</v>
       </c>
@@ -7376,7 +7381,7 @@
       </c>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>13</v>
       </c>
@@ -7406,7 +7411,7 @@
       </c>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>13</v>
       </c>
@@ -7436,7 +7441,7 @@
       </c>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>13</v>
       </c>
@@ -7466,7 +7471,7 @@
       </c>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>13</v>
       </c>
@@ -7496,7 +7501,7 @@
       </c>
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>13</v>
       </c>
@@ -7526,7 +7531,7 @@
       </c>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>13</v>
       </c>
@@ -7556,7 +7561,7 @@
       </c>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>13</v>
       </c>
@@ -7586,7 +7591,7 @@
       </c>
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>13</v>
       </c>
@@ -7616,7 +7621,7 @@
       </c>
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>13</v>
       </c>
@@ -7646,7 +7651,7 @@
       </c>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>13</v>
       </c>
@@ -7676,7 +7681,7 @@
       </c>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>13</v>
       </c>
@@ -7706,7 +7711,7 @@
       </c>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>13</v>
       </c>
@@ -7736,7 +7741,7 @@
       </c>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>13</v>
       </c>
@@ -7766,7 +7771,7 @@
       </c>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>13</v>
       </c>
@@ -7796,7 +7801,7 @@
       </c>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>13</v>
       </c>
@@ -7826,7 +7831,7 @@
       </c>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>13</v>
       </c>
@@ -7856,7 +7861,7 @@
       </c>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>13</v>
       </c>
@@ -7886,7 +7891,7 @@
       </c>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>13</v>
       </c>
@@ -7916,7 +7921,7 @@
       </c>
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>13</v>
       </c>
@@ -7946,7 +7951,7 @@
       </c>
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>13</v>
       </c>
@@ -7976,7 +7981,7 @@
       </c>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>13</v>
       </c>
@@ -8006,7 +8011,7 @@
       </c>
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>13</v>
       </c>
@@ -8036,7 +8041,7 @@
       </c>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>13</v>
       </c>
@@ -8066,7 +8071,7 @@
       </c>
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>13</v>
       </c>
@@ -8096,7 +8101,7 @@
       </c>
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>13</v>
       </c>
@@ -8126,7 +8131,7 @@
       </c>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>13</v>
       </c>
@@ -8156,7 +8161,7 @@
       </c>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>1059</v>
       </c>
@@ -8185,7 +8190,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>1059</v>
       </c>
@@ -8215,7 +8220,7 @@
       </c>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>1059</v>
       </c>
@@ -8245,7 +8250,7 @@
       </c>
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>1059</v>
       </c>
@@ -8275,7 +8280,7 @@
       </c>
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>1059</v>
       </c>
@@ -8305,7 +8310,7 @@
       </c>
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>1059</v>
       </c>
@@ -8335,7 +8340,7 @@
       </c>
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>13</v>
       </c>
@@ -8366,7 +8371,7 @@
       <c r="J116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>13</v>
       </c>
@@ -8396,7 +8401,7 @@
       </c>
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>13</v>
       </c>
@@ -8426,7 +8431,7 @@
       </c>
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>13</v>
       </c>
@@ -8456,7 +8461,7 @@
       </c>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>13</v>
       </c>
@@ -8486,7 +8491,7 @@
       </c>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>13</v>
       </c>
@@ -8516,7 +8521,7 @@
       </c>
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>13</v>
       </c>
@@ -8546,7 +8551,7 @@
       </c>
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>269</v>
       </c>
@@ -8576,7 +8581,7 @@
       </c>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>269</v>
       </c>
@@ -8606,7 +8611,7 @@
       </c>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>269</v>
       </c>
@@ -8636,7 +8641,7 @@
       </c>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>269</v>
       </c>
@@ -8666,7 +8671,7 @@
       </c>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>269</v>
       </c>
@@ -8696,7 +8701,7 @@
       </c>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>269</v>
       </c>
@@ -8726,7 +8731,7 @@
       </c>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>269</v>
       </c>
@@ -8756,7 +8761,7 @@
       </c>
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>269</v>
       </c>
@@ -8786,7 +8791,7 @@
       </c>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>269</v>
       </c>
@@ -8816,7 +8821,7 @@
       </c>
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>269</v>
       </c>
@@ -8846,7 +8851,7 @@
       </c>
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>269</v>
       </c>
@@ -8876,7 +8881,7 @@
       </c>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>269</v>
       </c>
@@ -8907,7 +8912,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="3"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>269</v>
       </c>
@@ -8937,7 +8942,7 @@
       </c>
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>269</v>
       </c>
@@ -8967,7 +8972,7 @@
       </c>
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>269</v>
       </c>
@@ -8997,7 +9002,7 @@
       </c>
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>269</v>
       </c>
@@ -9027,7 +9032,7 @@
       </c>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>269</v>
       </c>
@@ -9057,7 +9062,7 @@
       </c>
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>269</v>
       </c>
@@ -9087,7 +9092,7 @@
       </c>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>269</v>
       </c>
@@ -9117,7 +9122,7 @@
       </c>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>269</v>
       </c>
@@ -9147,7 +9152,7 @@
       </c>
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>269</v>
       </c>
@@ -9177,7 +9182,7 @@
       </c>
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>269</v>
       </c>
@@ -9207,7 +9212,7 @@
       </c>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>269</v>
       </c>
@@ -9237,7 +9242,7 @@
       </c>
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>269</v>
       </c>
@@ -9267,7 +9272,7 @@
       </c>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>269</v>
       </c>
@@ -9297,7 +9302,7 @@
       </c>
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>269</v>
       </c>
@@ -9327,7 +9332,7 @@
       </c>
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>269</v>
       </c>
@@ -9357,7 +9362,7 @@
       </c>
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>269</v>
       </c>
@@ -9387,7 +9392,7 @@
       </c>
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>269</v>
       </c>
@@ -9417,7 +9422,7 @@
       </c>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>269</v>
       </c>
@@ -9447,7 +9452,7 @@
       </c>
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>269</v>
       </c>
@@ -9477,7 +9482,7 @@
       </c>
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>269</v>
       </c>
@@ -9507,7 +9512,7 @@
       </c>
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>269</v>
       </c>
@@ -9537,7 +9542,7 @@
       </c>
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>269</v>
       </c>
@@ -9567,7 +9572,7 @@
       </c>
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>269</v>
       </c>
@@ -9597,7 +9602,7 @@
       </c>
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>269</v>
       </c>
@@ -9627,7 +9632,7 @@
       </c>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>269</v>
       </c>
@@ -9657,7 +9662,7 @@
       </c>
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>269</v>
       </c>
@@ -9687,7 +9692,7 @@
       </c>
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>269</v>
       </c>
@@ -9717,7 +9722,7 @@
       </c>
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>269</v>
       </c>
@@ -9747,7 +9752,7 @@
       </c>
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>269</v>
       </c>
@@ -9777,7 +9782,7 @@
       </c>
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>269</v>
       </c>
@@ -9807,7 +9812,7 @@
       </c>
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>269</v>
       </c>
@@ -9837,7 +9842,7 @@
       </c>
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>269</v>
       </c>
@@ -9867,7 +9872,7 @@
       </c>
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>269</v>
       </c>
@@ -9897,7 +9902,7 @@
       </c>
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>269</v>
       </c>
@@ -9927,7 +9932,7 @@
       </c>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>368</v>
       </c>
@@ -9957,7 +9962,7 @@
       </c>
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>368</v>
       </c>
@@ -9987,7 +9992,7 @@
       </c>
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>368</v>
       </c>
@@ -10017,7 +10022,7 @@
       </c>
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>368</v>
       </c>
@@ -10047,7 +10052,7 @@
       </c>
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>368</v>
       </c>
@@ -10077,7 +10082,7 @@
       </c>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>368</v>
       </c>
@@ -10107,7 +10112,7 @@
       </c>
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>368</v>
       </c>
@@ -10137,7 +10142,7 @@
       </c>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>368</v>
       </c>
@@ -10167,7 +10172,7 @@
       </c>
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>368</v>
       </c>
@@ -10197,7 +10202,7 @@
       </c>
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>368</v>
       </c>
@@ -10227,7 +10232,7 @@
       </c>
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>368</v>
       </c>
@@ -10257,7 +10262,7 @@
       </c>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>368</v>
       </c>
@@ -10287,7 +10292,7 @@
       </c>
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>368</v>
       </c>
@@ -10317,7 +10322,7 @@
       </c>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>368</v>
       </c>
@@ -10347,7 +10352,7 @@
       </c>
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>368</v>
       </c>
@@ -10377,7 +10382,7 @@
       </c>
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>368</v>
       </c>
@@ -10407,7 +10412,7 @@
       </c>
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>368</v>
       </c>
@@ -10437,7 +10442,7 @@
       </c>
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>368</v>
       </c>
@@ -10467,7 +10472,7 @@
       </c>
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>368</v>
       </c>
@@ -10497,7 +10502,7 @@
       </c>
       <c r="J187" s="2"/>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>368</v>
       </c>
@@ -10527,7 +10532,7 @@
       </c>
       <c r="J188" s="2"/>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>368</v>
       </c>
@@ -10557,7 +10562,7 @@
       </c>
       <c r="J189" s="2"/>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>368</v>
       </c>
@@ -10587,7 +10592,7 @@
       </c>
       <c r="J190" s="2"/>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>368</v>
       </c>
@@ -10617,7 +10622,7 @@
       </c>
       <c r="J191" s="2"/>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>368</v>
       </c>
@@ -10647,7 +10652,7 @@
       </c>
       <c r="J192" s="2"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>368</v>
       </c>
@@ -10677,7 +10682,7 @@
       </c>
       <c r="J193" s="2"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>368</v>
       </c>
@@ -10707,7 +10712,7 @@
       </c>
       <c r="J194" s="2"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>368</v>
       </c>
@@ -10738,7 +10743,7 @@
       <c r="J195" s="2"/>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>368</v>
       </c>
@@ -10769,7 +10774,7 @@
       <c r="J196" s="2"/>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>368</v>
       </c>
@@ -10801,7 +10806,7 @@
       <c r="K197" s="2"/>
       <c r="L197" s="2"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>368</v>
       </c>
@@ -10832,7 +10837,7 @@
       <c r="J198" s="2"/>
       <c r="L198" s="2"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>368</v>
       </c>
@@ -10863,7 +10868,7 @@
       <c r="J199" s="2"/>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>368</v>
       </c>
@@ -10893,7 +10898,7 @@
       </c>
       <c r="J200" s="2"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>368</v>
       </c>
@@ -10923,7 +10928,7 @@
       </c>
       <c r="J201" s="2"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>368</v>
       </c>
@@ -10953,7 +10958,7 @@
       </c>
       <c r="J202" s="2"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>368</v>
       </c>
@@ -10983,7 +10988,7 @@
       </c>
       <c r="J203" s="2"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>368</v>
       </c>
@@ -11013,7 +11018,7 @@
       </c>
       <c r="J204" s="2"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>368</v>
       </c>
@@ -11043,7 +11048,7 @@
       </c>
       <c r="J205" s="2"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>368</v>
       </c>
@@ -11073,7 +11078,7 @@
       </c>
       <c r="J206" s="2"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>368</v>
       </c>
@@ -11103,7 +11108,7 @@
       </c>
       <c r="J207" s="2"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>368</v>
       </c>
@@ -11133,7 +11138,7 @@
       </c>
       <c r="J208" s="2"/>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>368</v>
       </c>
@@ -11163,7 +11168,7 @@
       </c>
       <c r="J209" s="2"/>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>368</v>
       </c>
@@ -11193,7 +11198,7 @@
       </c>
       <c r="J210" s="2"/>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>368</v>
       </c>
@@ -11223,7 +11228,7 @@
       </c>
       <c r="J211" s="2"/>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>368</v>
       </c>
@@ -11253,7 +11258,7 @@
       </c>
       <c r="J212" s="2"/>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>368</v>
       </c>
@@ -11283,7 +11288,7 @@
       </c>
       <c r="J213" s="2"/>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>368</v>
       </c>
@@ -11313,7 +11318,7 @@
       </c>
       <c r="J214" s="2"/>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>368</v>
       </c>
@@ -11343,7 +11348,7 @@
       </c>
       <c r="J215" s="2"/>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>368</v>
       </c>
@@ -11373,7 +11378,7 @@
       </c>
       <c r="J216" s="2"/>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>368</v>
       </c>
@@ -11403,7 +11408,7 @@
       </c>
       <c r="J217" s="2"/>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>368</v>
       </c>
@@ -11433,7 +11438,7 @@
       </c>
       <c r="J218" s="2"/>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>368</v>
       </c>
@@ -11463,7 +11468,7 @@
       </c>
       <c r="J219" s="2"/>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>368</v>
       </c>
@@ -11493,7 +11498,7 @@
       </c>
       <c r="J220" s="2"/>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>368</v>
       </c>
@@ -11523,7 +11528,7 @@
       </c>
       <c r="J221" s="2"/>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>368</v>
       </c>
@@ -11553,7 +11558,7 @@
       </c>
       <c r="J222" s="2"/>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>368</v>
       </c>
@@ -11583,7 +11588,7 @@
       </c>
       <c r="J223" s="2"/>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>368</v>
       </c>
@@ -11613,7 +11618,7 @@
       </c>
       <c r="J224" s="2"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>368</v>
       </c>
@@ -11643,7 +11648,7 @@
       </c>
       <c r="J225" s="2"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>368</v>
       </c>
@@ -11673,7 +11678,7 @@
       </c>
       <c r="J226" s="2"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>368</v>
       </c>
@@ -11703,7 +11708,7 @@
       </c>
       <c r="J227" s="2"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>1442</v>
       </c>
@@ -11729,7 +11734,7 @@
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>489</v>
       </c>
@@ -11770,7 +11775,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>489</v>
       </c>
@@ -11811,7 +11816,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>489</v>
       </c>
@@ -11852,7 +11857,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>489</v>
       </c>
@@ -11893,7 +11898,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>489</v>
       </c>
@@ -11934,7 +11939,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>489</v>
       </c>
@@ -11975,7 +11980,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>489</v>
       </c>
@@ -12016,7 +12021,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>489</v>
       </c>
@@ -12057,7 +12062,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>489</v>
       </c>
@@ -12098,7 +12103,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>518</v>
       </c>
@@ -12139,7 +12144,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>518</v>
       </c>
@@ -12180,7 +12185,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>518</v>
       </c>
@@ -12221,7 +12226,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>518</v>
       </c>
@@ -12262,7 +12267,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>518</v>
       </c>
@@ -12303,7 +12308,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>518</v>
       </c>
@@ -12338,7 +12343,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>518</v>
       </c>
@@ -12373,7 +12378,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>518</v>
       </c>
@@ -12408,7 +12413,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>518</v>
       </c>
@@ -12443,7 +12448,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>518</v>
       </c>
@@ -12478,7 +12483,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>518</v>
       </c>
@@ -12513,7 +12518,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>518</v>
       </c>
@@ -12548,7 +12553,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>518</v>
       </c>
@@ -12583,7 +12588,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>518</v>
       </c>
@@ -12618,7 +12623,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>518</v>
       </c>
@@ -12653,7 +12658,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>518</v>
       </c>
@@ -12688,7 +12693,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>518</v>
       </c>
@@ -12723,7 +12728,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>518</v>
       </c>
@@ -12758,7 +12763,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>518</v>
       </c>
@@ -12793,7 +12798,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>518</v>
       </c>
@@ -12828,7 +12833,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>518</v>
       </c>
@@ -12863,7 +12868,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>518</v>
       </c>
@@ -12898,7 +12903,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>518</v>
       </c>
@@ -12933,7 +12938,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>518</v>
       </c>
@@ -12968,7 +12973,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>518</v>
       </c>
@@ -13003,7 +13008,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>518</v>
       </c>
@@ -13038,7 +13043,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>518</v>
       </c>
@@ -13073,7 +13078,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>518</v>
       </c>
@@ -13108,7 +13113,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>518</v>
       </c>
@@ -13143,7 +13148,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>518</v>
       </c>
@@ -13178,7 +13183,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>518</v>
       </c>
@@ -13213,7 +13218,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>518</v>
       </c>
@@ -13248,7 +13253,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>518</v>
       </c>
@@ -13283,7 +13288,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>518</v>
       </c>
@@ -13318,7 +13323,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>518</v>
       </c>
@@ -13353,7 +13358,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>518</v>
       </c>
@@ -13388,7 +13393,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>518</v>
       </c>
@@ -13423,7 +13428,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>518</v>
       </c>
@@ -13458,7 +13463,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>518</v>
       </c>
@@ -13493,7 +13498,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>518</v>
       </c>
@@ -13528,7 +13533,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>518</v>
       </c>
@@ -13563,7 +13568,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>518</v>
       </c>
@@ -13598,7 +13603,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>518</v>
       </c>
@@ -13633,7 +13638,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>518</v>
       </c>
@@ -13668,7 +13673,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>518</v>
       </c>
@@ -13703,7 +13708,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>518</v>
       </c>
@@ -13738,7 +13743,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>518</v>
       </c>
@@ -13773,7 +13778,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>518</v>
       </c>
@@ -13808,7 +13813,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>518</v>
       </c>
@@ -13843,7 +13848,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>518</v>
       </c>
@@ -13878,7 +13883,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>489</v>
       </c>
@@ -13907,7 +13912,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>489</v>
       </c>
@@ -13936,7 +13941,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>489</v>
       </c>
@@ -13965,7 +13970,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>489</v>
       </c>
@@ -13994,7 +13999,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>489</v>
       </c>
@@ -14023,7 +14028,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>489</v>
       </c>
@@ -14052,7 +14057,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>489</v>
       </c>
@@ -14081,7 +14086,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>489</v>
       </c>
@@ -14110,7 +14115,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>489</v>
       </c>
@@ -14139,7 +14144,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>489</v>
       </c>
@@ -14168,7 +14173,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>489</v>
       </c>
@@ -14197,7 +14202,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>489</v>
       </c>
@@ -14226,7 +14231,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>489</v>
       </c>
@@ -14255,7 +14260,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>489</v>
       </c>
@@ -14284,7 +14289,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>489</v>
       </c>
@@ -14313,7 +14318,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>489</v>
       </c>
@@ -14342,7 +14347,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>489</v>
       </c>
@@ -14371,7 +14376,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>489</v>
       </c>
@@ -14400,7 +14405,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>489</v>
       </c>
@@ -14429,7 +14434,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>489</v>
       </c>
@@ -14458,7 +14463,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>489</v>
       </c>
@@ -14487,7 +14492,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>489</v>
       </c>
@@ -14516,7 +14521,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>489</v>
       </c>
@@ -14545,7 +14550,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>489</v>
       </c>
@@ -14574,7 +14579,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>489</v>
       </c>
@@ -14603,7 +14608,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>489</v>
       </c>
@@ -14632,7 +14637,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>489</v>
       </c>
@@ -14661,7 +14666,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>489</v>
       </c>
@@ -14690,7 +14695,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>489</v>
       </c>
@@ -14719,7 +14724,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>518</v>
       </c>
@@ -14748,7 +14753,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>518</v>
       </c>
@@ -14777,7 +14782,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>518</v>
       </c>
@@ -14806,7 +14811,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>518</v>
       </c>
@@ -14835,7 +14840,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>518</v>
       </c>
@@ -14864,7 +14869,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>518</v>
       </c>
@@ -14893,7 +14898,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>518</v>
       </c>
@@ -14922,7 +14927,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>518</v>
       </c>
@@ -14951,7 +14956,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>518</v>
       </c>
@@ -14980,7 +14985,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>518</v>
       </c>
@@ -15009,7 +15014,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>518</v>
       </c>
@@ -15038,7 +15043,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>518</v>
       </c>
@@ -15067,7 +15072,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>518</v>
       </c>
@@ -15096,7 +15101,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>518</v>
       </c>
@@ -15125,7 +15130,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>518</v>
       </c>
@@ -15154,7 +15159,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>518</v>
       </c>
@@ -15183,7 +15188,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>518</v>
       </c>
@@ -15212,7 +15217,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>518</v>
       </c>
@@ -15241,7 +15246,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>518</v>
       </c>
@@ -15270,7 +15275,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>518</v>
       </c>
@@ -15299,7 +15304,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>518</v>
       </c>
@@ -15328,7 +15333,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>518</v>
       </c>
@@ -15357,7 +15362,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>518</v>
       </c>
@@ -15386,7 +15391,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>518</v>
       </c>
@@ -15415,7 +15420,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>518</v>
       </c>
@@ -15444,7 +15449,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>518</v>
       </c>
@@ -15473,7 +15478,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>518</v>
       </c>
@@ -15502,7 +15507,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>518</v>
       </c>
@@ -15525,7 +15530,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>1443</v>
       </c>
@@ -15552,17 +15557,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="17.640625" customWidth="1"/>
+    <col min="2" max="2" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -15585,7 +15590,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1424</v>
       </c>
@@ -15614,7 +15619,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>1431</v>
       </c>
@@ -15643,7 +15648,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15662,7 +15667,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15679,7 +15684,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15696,7 +15701,7 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15713,7 +15718,7 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15730,7 +15735,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15747,7 +15752,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15764,7 +15769,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15781,7 +15786,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15798,7 +15803,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15815,7 +15820,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15832,7 +15837,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15849,7 +15854,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15866,7 +15871,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15883,7 +15888,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15900,7 +15905,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15917,7 +15922,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15934,7 +15939,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15951,7 +15956,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15968,7 +15973,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>1395</v>
       </c>
@@ -15998,25 +16003,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.35546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.2109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.2109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -16063,7 +16068,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -16110,7 +16115,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16157,7 +16162,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -16204,7 +16209,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -16245,7 +16250,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -16292,7 +16297,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -16339,7 +16344,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -16386,7 +16391,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -16433,7 +16438,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -16474,7 +16479,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -16515,7 +16520,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -16556,7 +16561,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -16597,7 +16602,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -16644,7 +16649,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -16685,7 +16690,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -16726,7 +16731,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -16767,7 +16772,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -16808,7 +16813,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -16849,7 +16854,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -16890,7 +16895,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -16931,7 +16936,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -16972,7 +16977,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -17013,7 +17018,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -17054,7 +17059,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -17095,7 +17100,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -17136,7 +17141,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -17183,7 +17188,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -17230,7 +17235,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -17271,7 +17276,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -17312,7 +17317,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -17353,7 +17358,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -17394,7 +17399,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -17435,7 +17440,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -17476,7 +17481,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -17517,7 +17522,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -17558,7 +17563,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -17599,7 +17604,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -17640,7 +17645,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -17681,7 +17686,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -17722,7 +17727,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -17763,7 +17768,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -17804,7 +17809,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -17845,7 +17850,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -17886,7 +17891,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -17927,7 +17932,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -17968,7 +17973,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -18009,7 +18014,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -18050,7 +18055,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -18091,7 +18096,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -18132,7 +18137,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -18179,7 +18184,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -18226,7 +18231,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -18267,7 +18272,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -18308,7 +18313,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -18349,7 +18354,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -18390,7 +18395,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -18431,7 +18436,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -18472,7 +18477,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -18513,7 +18518,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -18554,7 +18559,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -18595,7 +18600,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -18636,7 +18641,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>-1</v>
       </c>
@@ -18677,7 +18682,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>-1</v>
       </c>
@@ -18718,7 +18723,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>-1</v>
       </c>
@@ -18759,7 +18764,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>-1</v>
       </c>
@@ -18800,7 +18805,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>-1</v>
       </c>
@@ -18841,7 +18846,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>-1</v>
       </c>
@@ -18882,7 +18887,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>-1</v>
       </c>
@@ -18929,7 +18934,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>-1</v>
       </c>
@@ -18970,7 +18975,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>-1</v>
       </c>
@@ -19011,7 +19016,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>-1</v>
       </c>
@@ -19052,7 +19057,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>-1</v>
       </c>
@@ -19093,7 +19098,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>-1</v>
       </c>
@@ -19134,7 +19139,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>-1</v>
       </c>
@@ -19175,7 +19180,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>-1</v>
       </c>
@@ -19216,7 +19221,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>-1</v>
       </c>
@@ -19257,7 +19262,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>-1</v>
       </c>
@@ -19298,7 +19303,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>-1</v>
       </c>
@@ -19339,7 +19344,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>-1</v>
       </c>
@@ -19380,7 +19385,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>-1</v>
       </c>
@@ -19421,7 +19426,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>-1</v>
       </c>
@@ -19462,7 +19467,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>-1</v>
       </c>
@@ -19503,7 +19508,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>-1</v>
       </c>
@@ -19544,7 +19549,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>-1</v>
       </c>
@@ -19585,7 +19590,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>-1</v>
       </c>
@@ -19626,7 +19631,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>-1</v>
       </c>
@@ -19667,7 +19672,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>-1</v>
       </c>
@@ -19708,7 +19713,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>-1</v>
       </c>
@@ -19749,7 +19754,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>-1</v>
       </c>
@@ -19790,7 +19795,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>-1</v>
       </c>
@@ -19831,7 +19836,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>-1</v>
       </c>
@@ -19872,7 +19877,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>-1</v>
       </c>
@@ -19913,7 +19918,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>-1</v>
       </c>
@@ -19954,7 +19959,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>-1</v>
       </c>
@@ -19995,7 +20000,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>-1</v>
       </c>
@@ -20036,7 +20041,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>-1</v>
       </c>
@@ -20077,7 +20082,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>-1</v>
       </c>
@@ -20118,7 +20123,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>-1</v>
       </c>
@@ -20159,7 +20164,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>-1</v>
       </c>
@@ -20200,7 +20205,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>-1</v>
       </c>
@@ -20241,7 +20246,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>-1</v>
       </c>
@@ -20282,7 +20287,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>-1</v>
       </c>
@@ -20323,7 +20328,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>-1</v>
       </c>
@@ -20364,7 +20369,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>-1</v>
       </c>
@@ -20405,7 +20410,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>-1</v>
       </c>
@@ -20446,7 +20451,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>-1</v>
       </c>
@@ -20487,7 +20492,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>-1</v>
       </c>
@@ -20534,7 +20539,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>-1</v>
       </c>
@@ -20575,7 +20580,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -20622,7 +20627,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1</v>
       </c>
@@ -20663,7 +20668,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
@@ -20704,7 +20709,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1</v>
       </c>
@@ -20745,7 +20750,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1</v>
       </c>
@@ -20786,7 +20791,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -20827,7 +20832,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1</v>
       </c>
@@ -20868,7 +20873,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1</v>
       </c>
@@ -20915,7 +20920,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1</v>
       </c>
@@ -20956,7 +20961,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1</v>
       </c>
@@ -21003,7 +21008,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1</v>
       </c>
@@ -21044,7 +21049,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1</v>
       </c>
@@ -21085,7 +21090,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1</v>
       </c>
@@ -21126,7 +21131,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1</v>
       </c>
@@ -21167,7 +21172,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -21208,7 +21213,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1</v>
       </c>
@@ -21249,7 +21254,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1</v>
       </c>
@@ -21290,7 +21295,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1</v>
       </c>
@@ -21331,7 +21336,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1</v>
       </c>
@@ -21378,7 +21383,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1</v>
       </c>
@@ -21425,7 +21430,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -21472,7 +21477,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -21519,7 +21524,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1</v>
       </c>
@@ -21566,7 +21571,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -21613,7 +21618,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1</v>
       </c>
@@ -21660,7 +21665,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1</v>
       </c>
@@ -21707,7 +21712,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1</v>
       </c>
@@ -21748,7 +21753,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1</v>
       </c>
@@ -21789,7 +21794,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -21830,7 +21835,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1</v>
       </c>
@@ -21871,7 +21876,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1</v>
       </c>
@@ -21912,7 +21917,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1</v>
       </c>
@@ -21953,7 +21958,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -21994,7 +21999,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
@@ -22035,7 +22040,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1</v>
       </c>
@@ -22076,7 +22081,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -22117,7 +22122,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1</v>
       </c>
@@ -22158,7 +22163,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -22199,7 +22204,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1</v>
       </c>
@@ -22240,7 +22245,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1</v>
       </c>
@@ -22281,7 +22286,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1</v>
       </c>
@@ -22322,7 +22327,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1</v>
       </c>
@@ -22363,7 +22368,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1</v>
       </c>
@@ -22404,7 +22409,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1</v>
       </c>
@@ -22445,7 +22450,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1</v>
       </c>
@@ -22486,7 +22491,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1</v>
       </c>
@@ -22527,7 +22532,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1</v>
       </c>
@@ -22568,7 +22573,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1</v>
       </c>
@@ -22609,7 +22614,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -22650,7 +22655,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
@@ -22693,7 +22698,7 @@
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
@@ -22730,7 +22735,7 @@
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
@@ -22767,7 +22772,7 @@
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
@@ -22804,7 +22809,7 @@
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
@@ -22841,7 +22846,7 @@
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
@@ -22878,7 +22883,7 @@
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -22915,7 +22920,7 @@
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
@@ -22952,7 +22957,7 @@
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
@@ -22989,7 +22994,7 @@
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -23026,7 +23031,7 @@
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -23063,7 +23068,7 @@
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -23100,7 +23105,7 @@
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -23137,7 +23142,7 @@
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1</v>
       </c>
@@ -23174,7 +23179,7 @@
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1</v>
       </c>
@@ -23211,7 +23216,7 @@
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -23248,7 +23253,7 @@
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -23285,7 +23290,7 @@
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1</v>
       </c>
@@ -23322,7 +23327,7 @@
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1</v>
       </c>
@@ -23359,7 +23364,7 @@
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1</v>
       </c>
@@ -23396,7 +23401,7 @@
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1</v>
       </c>
@@ -23433,7 +23438,7 @@
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1</v>
       </c>
@@ -23470,7 +23475,7 @@
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
@@ -23507,7 +23512,7 @@
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1</v>
       </c>
@@ -23544,7 +23549,7 @@
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -23581,7 +23586,7 @@
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1</v>
       </c>
@@ -23618,7 +23623,7 @@
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1</v>
       </c>
@@ -23655,7 +23660,7 @@
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1</v>
       </c>
@@ -23692,7 +23697,7 @@
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1</v>
       </c>
@@ -23729,7 +23734,7 @@
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1</v>
       </c>
@@ -23766,7 +23771,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
@@ -23803,7 +23808,7 @@
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1</v>
       </c>
@@ -23840,7 +23845,7 @@
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1</v>
       </c>
@@ -23877,7 +23882,7 @@
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1</v>
       </c>
@@ -23914,7 +23919,7 @@
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1</v>
       </c>
@@ -23951,7 +23956,7 @@
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1</v>
       </c>
@@ -23988,7 +23993,7 @@
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
@@ -24025,7 +24030,7 @@
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
@@ -24062,7 +24067,7 @@
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1</v>
       </c>
@@ -24099,7 +24104,7 @@
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
@@ -24136,7 +24141,7 @@
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1</v>
       </c>
@@ -24173,7 +24178,7 @@
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1</v>
       </c>
@@ -24210,7 +24215,7 @@
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
@@ -24247,7 +24252,7 @@
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1</v>
       </c>
@@ -24284,7 +24289,7 @@
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1</v>
       </c>
@@ -24321,7 +24326,7 @@
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1</v>
       </c>
@@ -24358,7 +24363,7 @@
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1</v>
       </c>
@@ -24395,7 +24400,7 @@
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1</v>
       </c>
@@ -24432,7 +24437,7 @@
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1</v>
       </c>
@@ -24469,7 +24474,7 @@
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1</v>
       </c>
@@ -24506,7 +24511,7 @@
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1</v>
       </c>
@@ -24543,7 +24548,7 @@
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1</v>
       </c>
@@ -24580,7 +24585,7 @@
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1</v>
       </c>
@@ -24617,7 +24622,7 @@
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1</v>
       </c>
@@ -24654,7 +24659,7 @@
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1</v>
       </c>
@@ -24691,7 +24696,7 @@
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1</v>
       </c>
@@ -24728,7 +24733,7 @@
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1</v>
       </c>
@@ -24765,7 +24770,7 @@
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1</v>
       </c>
@@ -24802,7 +24807,7 @@
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1</v>
       </c>
@@ -24839,7 +24844,7 @@
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>-1</v>
       </c>
@@ -24876,7 +24881,7 @@
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>-1</v>
       </c>
@@ -24913,7 +24918,7 @@
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>-1</v>
       </c>
@@ -24950,7 +24955,7 @@
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>-1</v>
       </c>
@@ -24987,7 +24992,7 @@
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>-1</v>
       </c>
@@ -25024,7 +25029,7 @@
       <c r="N222" s="2"/>
       <c r="O222" s="2"/>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>-1</v>
       </c>
@@ -25061,7 +25066,7 @@
       <c r="N223" s="2"/>
       <c r="O223" s="2"/>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>-1</v>
       </c>
@@ -25098,7 +25103,7 @@
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>-1</v>
       </c>
@@ -25135,7 +25140,7 @@
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>-1</v>
       </c>
@@ -25172,7 +25177,7 @@
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>-1</v>
       </c>
@@ -25209,7 +25214,7 @@
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>-1</v>
       </c>
@@ -25246,7 +25251,7 @@
       <c r="N228" s="2"/>
       <c r="O228" s="2"/>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>-1</v>
       </c>
@@ -25283,7 +25288,7 @@
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>-1</v>
       </c>
@@ -25320,7 +25325,7 @@
       <c r="N230" s="2"/>
       <c r="O230" s="2"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>-1</v>
       </c>
@@ -25357,7 +25362,7 @@
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>-1</v>
       </c>
@@ -25394,7 +25399,7 @@
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>-1</v>
       </c>
@@ -25431,7 +25436,7 @@
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>-1</v>
       </c>
@@ -25468,7 +25473,7 @@
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>-1</v>
       </c>
@@ -25505,7 +25510,7 @@
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>-1</v>
       </c>
@@ -25542,7 +25547,7 @@
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>-1</v>
       </c>
@@ -25579,7 +25584,7 @@
       <c r="N237" s="2"/>
       <c r="O237" s="2"/>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>-1</v>
       </c>
@@ -25616,7 +25621,7 @@
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>-1</v>
       </c>
@@ -25653,7 +25658,7 @@
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>-1</v>
       </c>
@@ -25690,7 +25695,7 @@
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>-1</v>
       </c>
@@ -25727,7 +25732,7 @@
       <c r="N241" s="2"/>
       <c r="O241" s="2"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>-1</v>
       </c>
@@ -25764,7 +25769,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>-1</v>
       </c>
@@ -25801,7 +25806,7 @@
       <c r="N243" s="2"/>
       <c r="O243" s="2"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>-1</v>
       </c>
@@ -25838,7 +25843,7 @@
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>-1</v>
       </c>
@@ -25875,7 +25880,7 @@
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>-1</v>
       </c>
@@ -25912,7 +25917,7 @@
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>-1</v>
       </c>
@@ -25949,7 +25954,7 @@
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>-1</v>
       </c>
@@ -25986,7 +25991,7 @@
       <c r="N248" s="2"/>
       <c r="O248" s="2"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>-1</v>
       </c>
@@ -26023,7 +26028,7 @@
       <c r="N249" s="2"/>
       <c r="O249" s="2"/>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>-1</v>
       </c>
@@ -26060,7 +26065,7 @@
       <c r="N250" s="2"/>
       <c r="O250" s="2"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>-1</v>
       </c>
@@ -26097,7 +26102,7 @@
       <c r="N251" s="2"/>
       <c r="O251" s="2"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>-1</v>
       </c>
@@ -26134,7 +26139,7 @@
       <c r="N252" s="2"/>
       <c r="O252" s="2"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>-1</v>
       </c>
@@ -26171,7 +26176,7 @@
       <c r="N253" s="2"/>
       <c r="O253" s="2"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>-1</v>
       </c>
@@ -26208,7 +26213,7 @@
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>-1</v>
       </c>
@@ -26245,7 +26250,7 @@
       <c r="N255" s="2"/>
       <c r="O255" s="2"/>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>-1</v>
       </c>
@@ -26282,7 +26287,7 @@
       <c r="N256" s="2"/>
       <c r="O256" s="2"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>-1</v>
       </c>
@@ -26319,7 +26324,7 @@
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>-1</v>
       </c>
@@ -26356,7 +26361,7 @@
       <c r="N258" s="2"/>
       <c r="O258" s="2"/>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>-1</v>
       </c>
@@ -26393,7 +26398,7 @@
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>-1</v>
       </c>
@@ -26430,7 +26435,7 @@
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>-1</v>
       </c>
@@ -26467,7 +26472,7 @@
       <c r="N261" s="2"/>
       <c r="O261" s="2"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>-1</v>
       </c>
@@ -26504,7 +26509,7 @@
       <c r="N262" s="2"/>
       <c r="O262" s="2"/>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>-1</v>
       </c>
@@ -26541,7 +26546,7 @@
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>-1</v>
       </c>
@@ -26578,7 +26583,7 @@
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>-1</v>
       </c>
@@ -26615,7 +26620,7 @@
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>-1</v>
       </c>
@@ -26652,7 +26657,7 @@
       <c r="N266" s="2"/>
       <c r="O266" s="2"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>-1</v>
       </c>
@@ -26689,7 +26694,7 @@
       <c r="N267" s="2"/>
       <c r="O267" s="2"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>-1</v>
       </c>
@@ -26726,7 +26731,7 @@
       <c r="N268" s="2"/>
       <c r="O268" s="2"/>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>-1</v>
       </c>
@@ -26763,7 +26768,7 @@
       <c r="N269" s="2"/>
       <c r="O269" s="2"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>-1</v>
       </c>
@@ -26800,7 +26805,7 @@
       <c r="N270" s="2"/>
       <c r="O270" s="2"/>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>-1</v>
       </c>
@@ -26837,7 +26842,7 @@
       <c r="N271" s="2"/>
       <c r="O271" s="2"/>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1</v>
       </c>
@@ -26874,7 +26879,7 @@
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1</v>
       </c>
@@ -26911,7 +26916,7 @@
       <c r="N273" s="2"/>
       <c r="O273" s="2"/>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1</v>
       </c>
@@ -26948,7 +26953,7 @@
       <c r="N274" s="2"/>
       <c r="O274" s="2"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1</v>
       </c>
@@ -26985,7 +26990,7 @@
       <c r="N275" s="2"/>
       <c r="O275" s="2"/>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1</v>
       </c>
@@ -27022,7 +27027,7 @@
       <c r="N276" s="2"/>
       <c r="O276" s="2"/>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1</v>
       </c>
@@ -27059,7 +27064,7 @@
       <c r="N277" s="2"/>
       <c r="O277" s="2"/>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1</v>
       </c>
@@ -27096,7 +27101,7 @@
       <c r="N278" s="2"/>
       <c r="O278" s="2"/>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1</v>
       </c>
@@ -27133,7 +27138,7 @@
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1</v>
       </c>
@@ -27170,7 +27175,7 @@
       <c r="N280" s="2"/>
       <c r="O280" s="2"/>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1</v>
       </c>
@@ -27207,7 +27212,7 @@
       <c r="N281" s="2"/>
       <c r="O281" s="2"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1</v>
       </c>
@@ -27244,7 +27249,7 @@
       <c r="N282" s="2"/>
       <c r="O282" s="2"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1</v>
       </c>
@@ -27281,7 +27286,7 @@
       <c r="N283" s="2"/>
       <c r="O283" s="2"/>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1</v>
       </c>
@@ -27318,7 +27323,7 @@
       <c r="N284" s="2"/>
       <c r="O284" s="2"/>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1</v>
       </c>
@@ -27355,7 +27360,7 @@
       <c r="N285" s="2"/>
       <c r="O285" s="2"/>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1</v>
       </c>
@@ -27392,7 +27397,7 @@
       <c r="N286" s="2"/>
       <c r="O286" s="2"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1</v>
       </c>
@@ -27429,7 +27434,7 @@
       <c r="N287" s="2"/>
       <c r="O287" s="2"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1</v>
       </c>
@@ -27466,7 +27471,7 @@
       <c r="N288" s="2"/>
       <c r="O288" s="2"/>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1</v>
       </c>
@@ -27503,7 +27508,7 @@
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1</v>
       </c>
@@ -27540,7 +27545,7 @@
       <c r="N290" s="2"/>
       <c r="O290" s="2"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1</v>
       </c>
@@ -27577,7 +27582,7 @@
       <c r="N291" s="2"/>
       <c r="O291" s="2"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1</v>
       </c>
@@ -27614,7 +27619,7 @@
       <c r="N292" s="2"/>
       <c r="O292" s="2"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>-1</v>
       </c>
@@ -27651,7 +27656,7 @@
       <c r="N293" s="2"/>
       <c r="O293" s="2"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>-1</v>
       </c>
@@ -27688,7 +27693,7 @@
       <c r="N294" s="2"/>
       <c r="O294" s="2"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>-1</v>
       </c>
@@ -27725,7 +27730,7 @@
       <c r="N295" s="2"/>
       <c r="O295" s="2"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>-1</v>
       </c>
@@ -27762,7 +27767,7 @@
       <c r="N296" s="2"/>
       <c r="O296" s="2"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>-1</v>
       </c>
@@ -27799,7 +27804,7 @@
       <c r="N297" s="2"/>
       <c r="O297" s="2"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>-1</v>
       </c>
@@ -27836,7 +27841,7 @@
       <c r="N298" s="2"/>
       <c r="O298" s="2"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>-1</v>
       </c>
@@ -27873,7 +27878,7 @@
       <c r="N299" s="2"/>
       <c r="O299" s="2"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>-1</v>
       </c>
@@ -27910,7 +27915,7 @@
       <c r="N300" s="2"/>
       <c r="O300" s="2"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>-1</v>
       </c>
@@ -27947,7 +27952,7 @@
       <c r="N301" s="2"/>
       <c r="O301" s="2"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>-1</v>
       </c>
@@ -27984,7 +27989,7 @@
       <c r="N302" s="2"/>
       <c r="O302" s="2"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>-1</v>
       </c>
@@ -28021,7 +28026,7 @@
       <c r="N303" s="2"/>
       <c r="O303" s="2"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>-1</v>
       </c>
@@ -28064,7 +28069,7 @@
       <c r="N304" s="2"/>
       <c r="O304" s="2"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>-1</v>
       </c>
@@ -28101,7 +28106,7 @@
       <c r="N305" s="2"/>
       <c r="O305" s="2"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>-1</v>
       </c>
@@ -28138,7 +28143,7 @@
       <c r="N306" s="2"/>
       <c r="O306" s="2"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>-1</v>
       </c>
@@ -28175,7 +28180,7 @@
       <c r="N307" s="2"/>
       <c r="O307" s="2"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>-1</v>
       </c>
@@ -28212,7 +28217,7 @@
       <c r="N308" s="2"/>
       <c r="O308" s="2"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>-1</v>
       </c>
@@ -28249,7 +28254,7 @@
       <c r="N309" s="2"/>
       <c r="O309" s="2"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>-1</v>
       </c>
@@ -28286,7 +28291,7 @@
       <c r="N310" s="2"/>
       <c r="O310" s="2"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1</v>
       </c>
@@ -28311,7 +28316,7 @@
       <c r="N311" s="2"/>
       <c r="O311" s="2"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1</v>
       </c>
@@ -28336,7 +28341,7 @@
       <c r="N312" s="2"/>
       <c r="O312" s="2"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1</v>
       </c>
@@ -28361,7 +28366,7 @@
       <c r="N313" s="2"/>
       <c r="O313" s="2"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
@@ -28375,7 +28380,7 @@
       <c r="N314" s="2"/>
       <c r="O314" s="2"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
@@ -28389,7 +28394,7 @@
       <c r="N315" s="2"/>
       <c r="O315" s="2"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
@@ -28403,7 +28408,7 @@
       <c r="N316" s="2"/>
       <c r="O316" s="2"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
@@ -28417,7 +28422,7 @@
       <c r="N317" s="2"/>
       <c r="O317" s="2"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
@@ -28431,7 +28436,7 @@
       <c r="N318" s="2"/>
       <c r="O318" s="2"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
@@ -28445,7 +28450,7 @@
       <c r="N319" s="2"/>
       <c r="O319" s="2"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
@@ -28459,7 +28464,7 @@
       <c r="N320" s="2"/>
       <c r="O320" s="2"/>
     </row>
-    <row r="321" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
@@ -28473,7 +28478,7 @@
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
     </row>
-    <row r="322" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
@@ -28487,7 +28492,7 @@
       <c r="N322" s="2"/>
       <c r="O322" s="2"/>
     </row>
-    <row r="323" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
@@ -28501,7 +28506,7 @@
       <c r="N323" s="2"/>
       <c r="O323" s="2"/>
     </row>
-    <row r="324" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
@@ -28515,7 +28520,7 @@
       <c r="N324" s="2"/>
       <c r="O324" s="2"/>
     </row>
-    <row r="325" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
@@ -28529,7 +28534,7 @@
       <c r="N325" s="2"/>
       <c r="O325" s="2"/>
     </row>
-    <row r="326" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
@@ -28543,7 +28548,7 @@
       <c r="N326" s="2"/>
       <c r="O326" s="2"/>
     </row>
-    <row r="327" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
@@ -28557,7 +28562,7 @@
       <c r="N327" s="2"/>
       <c r="O327" s="2"/>
     </row>
-    <row r="328" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
@@ -28571,7 +28576,7 @@
       <c r="N328" s="2"/>
       <c r="O328" s="2"/>
     </row>
-    <row r="329" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
@@ -28585,7 +28590,7 @@
       <c r="N329" s="2"/>
       <c r="O329" s="2"/>
     </row>
-    <row r="330" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
@@ -28599,7 +28604,7 @@
       <c r="N330" s="2"/>
       <c r="O330" s="2"/>
     </row>
-    <row r="331" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
@@ -28613,7 +28618,7 @@
       <c r="N331" s="2"/>
       <c r="O331" s="2"/>
     </row>
-    <row r="332" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
@@ -28627,7 +28632,7 @@
       <c r="N332" s="2"/>
       <c r="O332" s="2"/>
     </row>
-    <row r="333" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
@@ -28641,7 +28646,7 @@
       <c r="N333" s="2"/>
       <c r="O333" s="2"/>
     </row>
-    <row r="334" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
@@ -28655,7 +28660,7 @@
       <c r="N334" s="2"/>
       <c r="O334" s="2"/>
     </row>
-    <row r="335" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
@@ -28669,7 +28674,7 @@
       <c r="N335" s="2"/>
       <c r="O335" s="2"/>
     </row>
-    <row r="336" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
@@ -28683,7 +28688,7 @@
       <c r="N336" s="2"/>
       <c r="O336" s="2"/>
     </row>
-    <row r="337" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
@@ -28697,7 +28702,7 @@
       <c r="N337" s="2"/>
       <c r="O337" s="2"/>
     </row>
-    <row r="338" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
@@ -28711,7 +28716,7 @@
       <c r="N338" s="2"/>
       <c r="O338" s="2"/>
     </row>
-    <row r="339" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
@@ -28725,7 +28730,7 @@
       <c r="N339" s="2"/>
       <c r="O339" s="2"/>
     </row>
-    <row r="340" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
@@ -28739,7 +28744,7 @@
       <c r="N340" s="2"/>
       <c r="O340" s="2"/>
     </row>
-    <row r="341" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
@@ -28753,7 +28758,7 @@
       <c r="N341" s="2"/>
       <c r="O341" s="2"/>
     </row>
-    <row r="342" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
@@ -28767,7 +28772,7 @@
       <c r="N342" s="2"/>
       <c r="O342" s="2"/>
     </row>
-    <row r="343" spans="4:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
@@ -28794,12 +28799,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20.640625" customWidth="1"/>
+    <col min="1" max="3" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -28810,7 +28815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>269</v>
       </c>
@@ -28821,7 +28826,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>368</v>
       </c>
@@ -28832,7 +28837,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>518</v>
       </c>
@@ -28843,7 +28848,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>489</v>
       </c>

--- a/CoA_Level.xlsx
+++ b/CoA_Level.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="11505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CoA" sheetId="1" r:id="rId1"/>
@@ -4280,70 +4280,6 @@
     <t>105400</t>
   </si>
   <si>
-    <t>CE10_NI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE30_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE40_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE50_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE60_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE70_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE80_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE90_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE100_CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE110_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE120_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE130_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE140_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE150_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE1000_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE1010_CT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CE9999</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4428,6 +4364,70 @@
   </si>
   <si>
     <t>15710</t>
+  </si>
+  <si>
+    <t>CE1000_NI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1110_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1120_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1130_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1140_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1150_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1160_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1170_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1210_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1180_CI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1220_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1230_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1240_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1250_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1310_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE1320_CT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4870,7 +4870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -6126,7 +6126,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1444</v>
+        <v>1428</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>102</v>
@@ -11710,7 +11710,7 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>1442</v>
+        <v>1426</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>1392</v>
@@ -15532,7 +15532,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>1443</v>
+        <v>1427</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>1393</v>
@@ -15557,8 +15557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15592,28 +15592,28 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>1424</v>
+        <v>1408</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1433</v>
+        <v>1417</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>1434</v>
+        <v>1418</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>1435</v>
+        <v>1419</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>1436</v>
+        <v>1420</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>1437</v>
+        <v>1421</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>1438</v>
+        <v>1422</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>1392</v>
@@ -15621,28 +15621,28 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>1431</v>
+        <v>1415</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1432</v>
+        <v>1416</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1425</v>
+        <v>1409</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>1426</v>
+        <v>1410</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>1427</v>
+        <v>1411</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>1428</v>
+        <v>1412</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>1429</v>
+        <v>1413</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>1430</v>
+        <v>1414</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>1392</v>
@@ -15675,7 +15675,7 @@
         <v>1043</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>1439</v>
+        <v>1423</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -15692,7 +15692,7 @@
         <v>1044</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>1407</v>
+        <v>1429</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -15709,7 +15709,7 @@
         <v>1045</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1408</v>
+        <v>1430</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -15726,7 +15726,7 @@
         <v>1046</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>1409</v>
+        <v>1431</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -15743,7 +15743,7 @@
         <v>1047</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>1410</v>
+        <v>1432</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -15760,7 +15760,7 @@
         <v>1048</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1411</v>
+        <v>1433</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -15777,7 +15777,7 @@
         <v>1049</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1412</v>
+        <v>1434</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -15794,7 +15794,7 @@
         <v>1050</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>1413</v>
+        <v>1435</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -15811,7 +15811,7 @@
         <v>1051</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>1414</v>
+        <v>1436</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -15828,7 +15828,7 @@
         <v>413</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>1415</v>
+        <v>1438</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -15845,7 +15845,7 @@
         <v>768</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1416</v>
+        <v>1437</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -15862,7 +15862,7 @@
         <v>1052</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>1417</v>
+        <v>1439</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -15879,7 +15879,7 @@
         <v>393</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>1418</v>
+        <v>1440</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -15896,7 +15896,7 @@
         <v>1053</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>1419</v>
+        <v>1441</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -15913,7 +15913,7 @@
         <v>1054</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1420</v>
+        <v>1442</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -15930,7 +15930,7 @@
         <v>1055</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>1421</v>
+        <v>1443</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -15947,7 +15947,7 @@
         <v>1056</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>1422</v>
+        <v>1444</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -15964,7 +15964,7 @@
         <v>1057</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>1423</v>
+        <v>1407</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -16109,7 +16109,7 @@
         <v>741</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1440</v>
+        <v>1424</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>493</v>
@@ -28823,7 +28823,7 @@
         <v>361</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1441</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
